--- a/templates/cpr1000/check_record.xlsx
+++ b/templates/cpr1000/check_record.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/churui/Projects/doc-server/templates/cpr1000/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\docServer\templates\cpr1000\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="27240" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="27240" windowHeight="14895" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>文件检查问题解决单</t>
     <phoneticPr fontId="3"/>
@@ -221,12 +221,16 @@
     <t>${pages}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>${project}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -614,6 +618,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -634,12 +644,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -652,6 +656,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -923,72 +930,72 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:J6"/>
+      <selection activeCell="C6" sqref="C6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="33" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-    </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.15">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1">
       <c r="A5" s="23" t="s">
         <v>2</v>
       </c>
@@ -996,9 +1003,9 @@
       <c r="C5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="28" t="s">
         <v>4</v>
       </c>
@@ -1014,8 +1021,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="23"/>
+    <row r="6" spans="1:12" ht="48.75" customHeight="1">
+      <c r="A6" s="23" t="s">
+        <v>28</v>
+      </c>
       <c r="B6" s="24"/>
       <c r="C6" s="25" t="s">
         <v>8</v>
@@ -1027,10 +1036,10 @@
         <v>26</v>
       </c>
       <c r="H6" s="28"/>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="37"/>
+      <c r="J6" s="30"/>
       <c r="K6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1038,11 +1047,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="31" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="21" t="s">
@@ -1072,9 +1081,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" s="22"/>
-      <c r="B8" s="30"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -1086,12 +1095,12 @@
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="25.5" customHeight="1">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="9"/>
@@ -1108,7 +1117,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="25.5" customHeight="1">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -1124,7 +1133,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="25.5" customHeight="1">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -1140,7 +1149,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="15.75">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1154,7 +1163,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="42.75" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
@@ -1172,7 +1181,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="16"/>
     </row>
-    <row r="14" spans="1:12" ht="98" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="126" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="17"/>

--- a/templates/cpr1000/check_record.xlsx
+++ b/templates/cpr1000/check_record.xlsx
@@ -2,22 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\docServer\templates\cpr1000\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\churui\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="465" windowWidth="27240" windowHeight="14895" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7635"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="模版" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -27,11 +27,34 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>文件检查问题解决单</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                           (E09-P13-000053/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)                     编号:</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -44,39 +67,27 @@
       </rPr>
       <t>项目名称</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>项目文件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>文件编码</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>文件页数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>版本</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>校核</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${r}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${r_b}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -89,7 +100,7 @@
       </rPr>
       <t>编号</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -102,7 +113,7 @@
       </rPr>
       <t>问题编码</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
@@ -115,27 +126,27 @@
       </rPr>
       <t>问题</t>
     </r>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>解决方案</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>编写</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>检查</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>修改</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>验证</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -148,27 +159,15 @@
       </rPr>
       <t>状态</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>问题分类</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${d_b}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${c_b}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -211,33 +210,61 @@
       </rPr>
       <t>“编写”，“检查”和“文件页数”一栏需要在电子版上填写，“编写”，“检查”填写对应的文件编写人和检查人，“文件页数”填写完整文件的页码数量。</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${project}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>${i_s}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>${pages}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${project}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${r}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${r_b}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${d_b}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${c_b}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -249,9 +276,8 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
@@ -272,7 +298,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -285,6 +313,7 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -303,30 +332,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -334,30 +340,35 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -375,8 +386,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor indexed="65"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -393,48 +404,48 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,46 +453,46 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -489,10 +500,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -501,158 +512,166 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="常规 5" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -927,282 +946,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:F6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="5.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.625" style="3" customWidth="1"/>
+    <col min="7" max="9" width="8.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7" style="3" customWidth="1"/>
+    <col min="12" max="12" width="20.25" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="8.875" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="35" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="9.75" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="7.5" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-    </row>
-    <row r="5" spans="1:12" ht="24" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="25.5" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="28" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="1" t="s">
+      <c r="J5" s="10"/>
+      <c r="K5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="48.75" customHeight="1">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:12" ht="27" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" ht="27" customHeight="1">
+      <c r="A9" s="24">
+        <v>1</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="20" t="s">
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="25"/>
+    </row>
+    <row r="10" spans="1:12" ht="27" customHeight="1">
+      <c r="A10" s="24">
+        <v>2</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="25"/>
+    </row>
+    <row r="11" spans="1:12" ht="27" customHeight="1">
+      <c r="A11" s="24">
+        <v>3</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="25"/>
+    </row>
+    <row r="12" spans="1:12" ht="27" customHeight="1">
+      <c r="A12" s="24">
+        <v>4</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="25"/>
+    </row>
+    <row r="13" spans="1:12" ht="27" customHeight="1">
+      <c r="A13" s="24">
+        <v>5</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="25"/>
+    </row>
+    <row r="14" spans="1:12" ht="27" customHeight="1">
+      <c r="A14" s="24">
+        <v>6</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="25"/>
+    </row>
+    <row r="15" spans="1:12" ht="10.5" customHeight="1">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+    </row>
+    <row r="16" spans="1:12" ht="71.25" customHeight="1">
+      <c r="A16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="22"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-    </row>
-    <row r="9" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A11" s="2">
-        <v>3</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="16"/>
-    </row>
-    <row r="14" spans="1:12" ht="126" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="19"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="36"/>
+    </row>
+    <row r="17" spans="1:12" ht="75.75" customHeight="1">
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A1:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
+  <scenarios current="0">
+    <scenario name="a,q" locked="1" count="1" user="作者" comment="创建者 作者 日期 2012-7-3">
+      <inputCells r="K9" val=""/>
+    </scenario>
+  </scenarios>
+  <mergeCells count="28">
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:L17"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="G6:H6"/>
@@ -1213,23 +1304,25 @@
     <mergeCell ref="D7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:L14"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A1:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="封面目录图框问题，升版说明及标识问题，上下游图纸不一致,图纸" sqref="L9:L11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="封面目录图框问题，升版说明及标识问题，上下游图纸不一致,图纸" sqref="L9:L14">
       <formula1>"封面、目录、图框问题,升版说明及标识问题,上下游图纸不一致,图纸与实物不一致,图纸描述及图符错误,图纸显示及打印错误,硬件设计错误,软件输入错误,输入文件错误"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="1.2598425196850394" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1">
+    <oddHeader>&amp;L&amp;G</oddHeader>
+    <firstHeader>&amp;L&amp;"宋体,加粗"&amp;10&amp;K03+035&amp;G</firstHeader>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
--- a/templates/cpr1000/check_record.xlsx
+++ b/templates/cpr1000/check_record.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\churui\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\doc-server\templates\cpr1000\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -217,10 +217,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>${project}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>${t}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -246,6 +242,10 @@
   </si>
   <si>
     <t>${c_b}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${unit}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -546,81 +546,15 @@
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -635,10 +569,19 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -650,12 +593,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -664,6 +601,69 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -949,331 +949,331 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="6.625" style="3" customWidth="1"/>
-    <col min="7" max="9" width="8.375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="7" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20.25" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="8.875" style="3"/>
+    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" style="1" customWidth="1"/>
+    <col min="7" max="9" width="8.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.25" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:12" ht="9.75" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12" ht="7.5" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
     </row>
     <row r="5" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="10" t="s">
+      <c r="H5" s="30"/>
+      <c r="I5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11" t="s">
+      <c r="J5" s="41"/>
+      <c r="K5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="27" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="30"/>
+      <c r="I6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="16" t="s">
+      <c r="J6" s="31"/>
+      <c r="K6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="11" t="s">
+      <c r="L6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="11" t="s">
+    </row>
+    <row r="7" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A8" s="23"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+    </row>
+    <row r="9" spans="1:12" ht="27" customHeight="1">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A7" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-    </row>
-    <row r="9" spans="1:12" ht="27" customHeight="1">
-      <c r="A9" s="24">
-        <v>1</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28" t="s">
+      <c r="H9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="25"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="27" customHeight="1">
-      <c r="A10" s="24">
+      <c r="A10" s="3">
         <v>2</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="25"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="27" customHeight="1">
-      <c r="A11" s="24">
+      <c r="A11" s="3">
         <v>3</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="25"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="27" customHeight="1">
-      <c r="A12" s="24">
+      <c r="A12" s="3">
         <v>4</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="25"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="27" customHeight="1">
-      <c r="A13" s="24">
+      <c r="A13" s="3">
         <v>5</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="25"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" ht="27" customHeight="1">
-      <c r="A14" s="24">
+      <c r="A14" s="3">
         <v>6</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="25"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12" ht="10.5" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" ht="71.25" customHeight="1">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="36"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12" ht="75.75" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="41"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="20"/>
     </row>
   </sheetData>
   <scenarios current="0">
@@ -1282,17 +1282,12 @@
     </scenario>
   </scenarios>
   <mergeCells count="28">
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:L17"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A1:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:F6"/>
@@ -1304,12 +1299,17 @@
     <mergeCell ref="D7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A1:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:L17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
